--- a/biology/Zoologie/Ephydatia_fluviatilis/Ephydatia_fluviatilis.xlsx
+++ b/biology/Zoologie/Ephydatia_fluviatilis/Ephydatia_fluviatilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éponge fluviale
 Ephydatia fluviatilis, l’Éponge fluviale ou l’Éponge d'eau douce, est une espèce d'éponges de la famille Spongillidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est répandue dans le monde entier, mais elle est plus commune dans les plans d'eau douce de l'hémisphère nord[1]. Une étude a élucidé la préférence d'habitat de cette espèce dans un lac d'eau douce de l'Utah[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est répandue dans le monde entier, mais elle est plus commune dans les plans d'eau douce de l'hémisphère nord. Une étude a élucidé la préférence d'habitat de cette espèce dans un lac d'eau douce de l'Utah.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ephydatia fluviatilis (Linnaeus, 1759)[1].
-L'espèce a été initialement classée dans le genre Spongia sous le protonyme Spongia fluviatilis Linnaeus, 1759[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Éponge fluviale[1], Éponge d'eau douce[3].
-Ephydatia fluviatilis a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ephydatia fluviatilis (Linnaeus, 1759).
+L'espèce a été initialement classée dans le genre Spongia sous le protonyme Spongia fluviatilis Linnaeus, 1759.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Éponge fluviale, Éponge d'eau douce.
+Ephydatia fluviatilis a pour synonymes :
 Clypeatula cooperensis Peterson &amp; Addis, 2000
 Ephydatia fluviatilis chui Gee, 1926
 Ephydatia fluviatilis hastifera Rezvoj, 1930
